--- a/src/main/java/testData/APITestData.xlsx
+++ b/src/main/java/testData/APITestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkarki10/Documents/my doc/Visualsoft/RestAssuredFramework/src/main/java/com/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archg\Restassuredpoc\RestAssuredAPI\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EF66D6-FD01-AE47-8ACA-B679ACF2AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1196532-B1B0-4653-BC9C-C2E7E95EEEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CoronaCasesDaily" sheetId="1" r:id="rId1"/>
+    <sheet name="testData" sheetId="1" r:id="rId1"/>
+    <sheet name="testDataNegative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -70,13 +71,22 @@
   </si>
   <si>
     <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -138,6 +148,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,11 +451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -438,7 +469,7 @@
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -467,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -496,7 +527,7 @@
         <v>265.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -525,7 +556,7 @@
         <v>265.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -558,4 +589,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5CD0E-1878-4192-BE86-99D2BDD3FCD0}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="17.08203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16">
+        <v>33151.9</v>
+      </c>
+      <c r="E2" s="17">
+        <v>6338</v>
+      </c>
+      <c r="F2" s="16">
+        <v>22238713</v>
+      </c>
+      <c r="G2" s="16">
+        <v>87</v>
+      </c>
+      <c r="H2" s="16">
+        <v>177977</v>
+      </c>
+      <c r="I2" s="16">
+        <v>265.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16">
+        <v>33142.5</v>
+      </c>
+      <c r="E3" s="17">
+        <v>12208</v>
+      </c>
+      <c r="F3" s="16">
+        <v>22232377</v>
+      </c>
+      <c r="G3" s="16">
+        <v>169</v>
+      </c>
+      <c r="H3" s="16">
+        <v>177890</v>
+      </c>
+      <c r="I3" s="16">
+        <v>265.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16">
+        <v>33142.5</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1882</v>
+      </c>
+      <c r="F4" s="16">
+        <v>22232377</v>
+      </c>
+      <c r="G4" s="16">
+        <v>169</v>
+      </c>
+      <c r="H4" s="16">
+        <v>177890</v>
+      </c>
+      <c r="I4" s="16">
+        <v>265.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>